--- a/bulletin/macroeconomics/static/macroeconomics/tables/per_capita_regional_gross_domestic_product.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/per_capita_regional_gross_domestic_product.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,8 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Показатели</t>
+          <t>Показатели 
+(тыс. тенге)</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -442,7 +443,7 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>2023
-Январь - Июнь</t>
+Январь - Март</t>
         </is>
       </c>
     </row>
@@ -465,9 +466,8 @@
         <v>5284.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2382.1</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>1191.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -481,7 +481,9 @@
       <c r="E3" t="n">
         <v>3901.1</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>930.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -501,7 +503,9 @@
       <c r="E4" t="n">
         <v>4428.5</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>871.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -521,7 +525,9 @@
       <c r="E5" t="n">
         <v>4788.2</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>1012</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -541,7 +547,9 @@
       <c r="E6" t="n">
         <v>2860</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>676.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -561,7 +569,9 @@
       <c r="E7" t="n">
         <v>19974.1</v>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>4793.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -581,7 +591,9 @@
       <c r="E8" t="n">
         <v>6467.8</v>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>1303.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -601,7 +613,9 @@
       <c r="E9" t="n">
         <v>2212.2</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>450.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -615,7 +629,9 @@
       <c r="E10" t="n">
         <v>2042.1</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>450.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -635,7 +651,9 @@
       <c r="E11" t="n">
         <v>6412.9</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1435.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -655,7 +673,9 @@
       <c r="E12" t="n">
         <v>5014.7</v>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>1054.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -675,7 +695,9 @@
       <c r="E13" t="n">
         <v>2917.9</v>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>641.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -695,7 +717,9 @@
       <c r="E14" t="n">
         <v>5817.8</v>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>1070.9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -715,7 +739,9 @@
       <c r="E15" t="n">
         <v>5685.8</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1181.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -735,7 +761,9 @@
       <c r="E16" t="n">
         <v>4097.7</v>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>758.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -755,7 +783,9 @@
       <c r="E17" t="n">
         <v>1671.8</v>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>369.9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -769,7 +799,9 @@
       <c r="E18" t="n">
         <v>7278.4</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>1868.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -789,7 +821,9 @@
       <c r="E19" t="n">
         <v>5353.8</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>1382.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -809,7 +843,9 @@
       <c r="E20" t="n">
         <v>8053.9</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>1782.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -829,7 +865,9 @@
       <c r="E21" t="n">
         <v>8985.6</v>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>2202.3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -849,7 +887,9 @@
       <c r="E22" t="n">
         <v>2798.4</v>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>585.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bulletin/macroeconomics/static/macroeconomics/tables/per_capita_regional_gross_domestic_product.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/per_capita_regional_gross_domestic_product.xlsx
@@ -424,8 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Показатели 
-(тыс. тенге)</t>
+          <t>Регионы (тыс. тенге)</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -443,7 +442,7 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>2023
-Январь - Март</t>
+ Январь - Июнь</t>
         </is>
       </c>
     </row>
@@ -460,13 +459,13 @@
         <v>3766.8</v>
       </c>
       <c r="D2" t="n">
-        <v>4417.9</v>
+        <v>4418.3</v>
       </c>
       <c r="E2" t="n">
         <v>5284.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1191.1</v>
+        <v>2382.1</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +481,7 @@
         <v>3901.1</v>
       </c>
       <c r="F3" t="n">
-        <v>930.9</v>
+        <v>1892.9</v>
       </c>
     </row>
     <row r="4">
@@ -504,7 +503,7 @@
         <v>4428.5</v>
       </c>
       <c r="F4" t="n">
-        <v>871.8</v>
+        <v>1855.3</v>
       </c>
     </row>
     <row r="5">
@@ -526,7 +525,7 @@
         <v>4788.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1012</v>
+        <v>2140.7</v>
       </c>
     </row>
     <row r="6">
@@ -548,7 +547,7 @@
         <v>2860</v>
       </c>
       <c r="F6" t="n">
-        <v>676.5</v>
+        <v>1262.5</v>
       </c>
     </row>
     <row r="7">
@@ -570,7 +569,7 @@
         <v>19974.1</v>
       </c>
       <c r="F7" t="n">
-        <v>4793.4</v>
+        <v>9563.5</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +591,7 @@
         <v>6467.8</v>
       </c>
       <c r="F8" t="n">
-        <v>1303.2</v>
+        <v>2747.7</v>
       </c>
     </row>
     <row r="9">
@@ -614,7 +613,7 @@
         <v>2212.2</v>
       </c>
       <c r="F9" t="n">
-        <v>450.2</v>
+        <v>1057.8</v>
       </c>
     </row>
     <row r="10">
@@ -630,7 +629,7 @@
         <v>2042.1</v>
       </c>
       <c r="F10" t="n">
-        <v>450.5</v>
+        <v>995.1</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +651,7 @@
         <v>6412.9</v>
       </c>
       <c r="F11" t="n">
-        <v>1435.4</v>
+        <v>2651.3</v>
       </c>
     </row>
     <row r="12">
@@ -674,7 +673,7 @@
         <v>5014.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1054.2</v>
+        <v>1953.9</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +695,7 @@
         <v>2917.9</v>
       </c>
       <c r="F13" t="n">
-        <v>641.4</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="14">
@@ -718,7 +717,7 @@
         <v>5817.8</v>
       </c>
       <c r="F14" t="n">
-        <v>1070.9</v>
+        <v>2596.7</v>
       </c>
     </row>
     <row r="15">
@@ -740,7 +739,7 @@
         <v>5685.8</v>
       </c>
       <c r="F15" t="n">
-        <v>1181.5</v>
+        <v>2298.8</v>
       </c>
     </row>
     <row r="16">
@@ -762,7 +761,7 @@
         <v>4097.7</v>
       </c>
       <c r="F16" t="n">
-        <v>758.3</v>
+        <v>1557.3</v>
       </c>
     </row>
     <row r="17">
@@ -784,7 +783,7 @@
         <v>1671.8</v>
       </c>
       <c r="F17" t="n">
-        <v>369.9</v>
+        <v>710.3</v>
       </c>
     </row>
     <row r="18">
@@ -800,7 +799,7 @@
         <v>7278.4</v>
       </c>
       <c r="F18" t="n">
-        <v>1868.4</v>
+        <v>3382.2</v>
       </c>
     </row>
     <row r="19">
@@ -822,7 +821,7 @@
         <v>5353.8</v>
       </c>
       <c r="F19" t="n">
-        <v>1382.9</v>
+        <v>2503.8</v>
       </c>
     </row>
     <row r="20">
@@ -844,7 +843,7 @@
         <v>8053.9</v>
       </c>
       <c r="F20" t="n">
-        <v>1782.7</v>
+        <v>3472.4</v>
       </c>
     </row>
     <row r="21">
@@ -866,7 +865,7 @@
         <v>8985.6</v>
       </c>
       <c r="F21" t="n">
-        <v>2202.3</v>
+        <v>4359.6</v>
       </c>
     </row>
     <row r="22">
@@ -888,7 +887,7 @@
         <v>2798.4</v>
       </c>
       <c r="F22" t="n">
-        <v>585.8</v>
+        <v>1269.3</v>
       </c>
     </row>
   </sheetData>
